--- a/entrada_teste.xlsx
+++ b/entrada_teste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" state="visible" r:id="rId2"/>
@@ -286,7 +286,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1044,10 +1044,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1079,8 +1079,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="n">
-        <f aca="false">10*5*1000</f>
-        <v>50000</v>
+        <f aca="false">-10*5*1000</f>
+        <v>-50000</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="n">
@@ -1096,36 +1096,36 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <f aca="false">10*5*1000</f>
-        <v>50000</v>
+        <f aca="false">-10*5*1000</f>
+        <v>-50000</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="n">
-        <f aca="false">10*5*1000</f>
-        <v>50000</v>
+        <f aca="false">8*5*1000</f>
+        <v>40000</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="n">
-        <f aca="false">10*5*1000</f>
-        <v>50000</v>
+        <f aca="false">-10*5*1000</f>
+        <v>-50000</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1146,18 +1146,24 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="n">
-        <f aca="false">8*5*1000</f>
-        <v>40000</v>
+        <f aca="false">-10*5*1000</f>
+        <v>-50000</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1174,10 +1180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1271,6 +1277,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
